--- a/documents/Sprint-01/Requisitos/Requisitos.xlsx
+++ b/documents/Sprint-01/Requisitos/Requisitos.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B63DA22-CF5F-43FB-B9E8-0DEA53E67EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\Simplify[\documents\Sprint-01\Requisitos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56279A6A-4827-467B-846C-84670909B0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Requisitos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
   <si>
     <t>Documentação e Matriz de Rastreabilidade dos Requisitos</t>
   </si>
@@ -200,13 +206,97 @@
   </si>
   <si>
     <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>Descrição do requisito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de requisito </t>
+  </si>
+  <si>
+    <t>Aplicação Web(React)</t>
+  </si>
+  <si>
+    <t>A aplicação web deve importar e exportar documentos</t>
+  </si>
+  <si>
+    <t>A aplicação deve ser responsiva</t>
+  </si>
+  <si>
+    <t>A visualização web no celular,deve ser similiar a da versão mobile</t>
+  </si>
+  <si>
+    <t>A aplicação deve ter opção dark mode</t>
+  </si>
+  <si>
+    <t>O usuario pode customizar a cor da aplicação</t>
+  </si>
+  <si>
+    <t>A aplicação deve listar os serviços</t>
+  </si>
+  <si>
+    <t>o usuario pode filtrar os serviços</t>
+  </si>
+  <si>
+    <t>a aplicação deve ter uma pagina para sua apresentação institucional</t>
+  </si>
+  <si>
+    <t>a aplicação deve ser hospedada</t>
+  </si>
+  <si>
+    <t>A aplicação deve ter uma pagina para gerar assinaturas</t>
+  </si>
+  <si>
+    <t>o usuario pode subir sua foto de perfil e seus dados</t>
+  </si>
+  <si>
+    <t>os dados do usuario devem ser armazanados em um banco de dados relacional</t>
+  </si>
+  <si>
+    <t>o banco de dados deve ser o SQL Server da microsoft</t>
+  </si>
+  <si>
+    <t>o banco precisa ter backup 3 vezes ao mês</t>
+  </si>
+  <si>
+    <t>deve ter uma api para retornar os dados do banco</t>
+  </si>
+  <si>
+    <t>a aplicação web deve ter endpoints para chamadas da API</t>
+  </si>
+  <si>
+    <t>a api deve ser construida em Java Spring</t>
+  </si>
+  <si>
+    <t>a api deve ter conceito de ORM</t>
+  </si>
+  <si>
+    <t>a api deve ter os metodos CRUD</t>
+  </si>
+  <si>
+    <t>a api deve ter tratativas de erros e codigos de status</t>
+  </si>
+  <si>
+    <t>a api, deve ter filtros e paginação</t>
+  </si>
+  <si>
+    <t>a api deve ser hospedada no heroku ou qualquer outra plataforma</t>
+  </si>
+  <si>
+    <t>a api deve se comunicar com o banco de dados e a aplicação</t>
+  </si>
+  <si>
+    <t>desejavel</t>
+  </si>
+  <si>
+    <t>essencial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +325,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,11 +652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T68"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="133.7109375" bestFit="1" customWidth="1"/>
@@ -574,7 +667,7 @@
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -590,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -672,7 +765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -695,7 +788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -718,7 +811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -741,7 +834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -764,7 +857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6</v>
       </c>
@@ -787,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
@@ -810,7 +903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>8</v>
       </c>
@@ -833,7 +926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>9</v>
       </c>
@@ -856,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
@@ -879,7 +972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11</v>
       </c>
@@ -902,7 +995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12</v>
       </c>
@@ -925,7 +1018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>13</v>
       </c>
@@ -948,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>14</v>
       </c>
@@ -971,7 +1064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>15</v>
       </c>
@@ -994,7 +1087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>16</v>
       </c>
@@ -1017,7 +1110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>17</v>
       </c>
@@ -1040,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>18</v>
       </c>
@@ -1063,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>19</v>
       </c>
@@ -1086,7 +1179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -1109,7 +1202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>21</v>
       </c>
@@ -1132,7 +1225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>22</v>
       </c>
@@ -1155,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>23</v>
       </c>
@@ -1178,7 +1271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>24</v>
       </c>
@@ -1201,7 +1294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>25</v>
       </c>
@@ -1221,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>26</v>
       </c>
@@ -1241,177 +1334,177 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>61</v>
       </c>
@@ -1425,13 +1518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B9F394-BB0C-40D5-BD1F-4F37924306A1}">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" ht="45">
+    <row r="2" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1495,7 +1588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1518,7 +1611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1541,7 +1634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1564,7 +1657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1587,7 +1680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1610,7 +1703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1633,7 +1726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1656,7 +1749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1679,7 +1772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1702,7 +1795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1725,7 +1818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1748,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1771,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1794,7 +1887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1817,7 +1910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1840,7 +1933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1863,7 +1956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1886,7 +1979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1909,7 +2002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1932,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1955,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1978,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2001,7 +2094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2024,7 +2117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2044,7 +2137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2066,6 +2159,314 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD60D7B-EE42-45BD-BE56-E99291054AA0}">
+  <dimension ref="A2:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -2202,6 +2603,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2210,20 +2617,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C948DA6-D02C-46EB-9A00-516086E0070E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C948DA6-D02C-46EB-9A00-516086E0070E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b123d2ef-f8f8-4b30-aa78-0212f6ddc4cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73271AC8-3A08-4E61-9C34-4107FBD43351}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97681C4-EA14-416F-B072-40872E20EAEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97681C4-EA14-416F-B072-40872E20EAEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73271AC8-3A08-4E61-9C34-4107FBD43351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/Sprint-01/Requisitos/Requisitos.xlsx
+++ b/documents/Sprint-01/Requisitos/Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\Simplify[\documents\Sprint-01\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\simplify\documents\Sprint-01\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56279A6A-4827-467B-846C-84670909B0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCBA1AA-DC2B-4421-892E-2F79D2C4F761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="88">
   <si>
     <t>Documentação e Matriz de Rastreabilidade dos Requisitos</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>essencial</t>
+  </si>
+  <si>
+    <t>funcional</t>
+  </si>
+  <si>
+    <t>não funcional</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD60D7B-EE42-45BD-BE56-E99291054AA0}">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,6 +2212,9 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2217,6 +2226,9 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2228,6 +2240,9 @@
       <c r="C5" t="s">
         <v>84</v>
       </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2239,6 +2254,9 @@
       <c r="C6" t="s">
         <v>84</v>
       </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2250,6 +2268,9 @@
       <c r="C7" t="s">
         <v>84</v>
       </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2261,6 +2282,9 @@
       <c r="C8" t="s">
         <v>84</v>
       </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2272,6 +2296,9 @@
       <c r="C9" t="s">
         <v>85</v>
       </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2283,6 +2310,9 @@
       <c r="C10" t="s">
         <v>85</v>
       </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2294,6 +2324,9 @@
       <c r="C11" t="s">
         <v>84</v>
       </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -2305,6 +2338,9 @@
       <c r="C12" t="s">
         <v>85</v>
       </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2316,6 +2352,9 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -2327,6 +2366,9 @@
       <c r="C14" t="s">
         <v>84</v>
       </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2338,6 +2380,9 @@
       <c r="C15" t="s">
         <v>85</v>
       </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -2349,8 +2394,11 @@
       <c r="C16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2360,8 +2408,11 @@
       <c r="C17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2371,8 +2422,11 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2382,8 +2436,11 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2393,8 +2450,11 @@
       <c r="C20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2404,8 +2464,11 @@
       <c r="C21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2415,8 +2478,11 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2426,8 +2492,11 @@
       <c r="C23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2437,8 +2506,11 @@
       <c r="C24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2448,8 +2520,11 @@
       <c r="C25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2459,8 +2534,11 @@
       <c r="C26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2471,6 +2549,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010045E12DD0B81C5B408AA6296AF4E35DD2" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bbed2ee271c9a94bf4b1faaf870a854c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b123d2ef-f8f8-4b30-aa78-0212f6ddc4cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ffb29aaa3ffc250bdfc81ad3ce1d6ff" ns2:_="">
     <xsd:import namespace="b123d2ef-f8f8-4b30-aa78-0212f6ddc4cc"/>
@@ -2602,22 +2695,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73271AC8-3A08-4E61-9C34-4107FBD43351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97681C4-EA14-416F-B072-40872E20EAEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C948DA6-D02C-46EB-9A00-516086E0070E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2633,21 +2728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97681C4-EA14-416F-B072-40872E20EAEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73271AC8-3A08-4E61-9C34-4107FBD43351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>